--- a/data-raw/OR1-1219_S7-2-3.xlsx
+++ b/data-raw/OR1-1219_S7-2-3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\R_packages\GRSmacrofauna\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\R_packages\GRSmacrofauna\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13C624B-B38D-4D71-865A-18C3652C95F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4597093D-F983-4C48-A39F-99411737254B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="12435" xr2:uid="{DAB7FBAA-A4BD-4B6B-BE9F-477C42303B71}"/>
+    <workbookView xWindow="3795" yWindow="0" windowWidth="27870" windowHeight="12435" xr2:uid="{DAB7FBAA-A4BD-4B6B-BE9F-477C42303B71}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="40">
   <si>
     <t>OR1_1219</t>
   </si>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>Polyp</t>
+  </si>
+  <si>
+    <t>Polychaeta</t>
+  </si>
+  <si>
+    <t>FH</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -186,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -199,6 +214,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6BEE8FB-703D-4D60-83B6-1F4AB8E93188}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="A99" sqref="A35:N99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1799,23 +1817,1726 @@
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="1"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>38</v>
+      </c>
+      <c r="L35" s="5">
+        <v>1</v>
+      </c>
+      <c r="M35" s="5">
+        <v>0.3</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>2</v>
+      </c>
+      <c r="E36" s="2">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L36" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M36" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="J37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L37" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M37" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+      <c r="J38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L38" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M38" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H39">
+        <v>5</v>
+      </c>
+      <c r="J39" t="s">
+        <v>38</v>
+      </c>
+      <c r="L39" s="5">
+        <v>1</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="J40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41">
+        <v>7</v>
+      </c>
+      <c r="J41" t="s">
+        <v>38</v>
+      </c>
+      <c r="L41" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="M41" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="J42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L42" s="5">
+        <v>2</v>
+      </c>
+      <c r="M42" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2</v>
+      </c>
+      <c r="E43" s="2">
+        <v>3</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43">
+        <v>9</v>
+      </c>
+      <c r="J43" t="s">
+        <v>39</v>
+      </c>
+      <c r="L43" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="M43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L44" s="5">
+        <v>1.9</v>
+      </c>
+      <c r="M44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>3</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H45">
+        <v>11</v>
+      </c>
+      <c r="J45" t="s">
+        <v>39</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M45" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H46">
+        <v>12</v>
+      </c>
+      <c r="J46" t="s">
+        <v>39</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="M46" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47">
+        <v>13</v>
+      </c>
+      <c r="J47" t="s">
+        <v>39</v>
+      </c>
+      <c r="L47" s="5">
+        <v>1</v>
+      </c>
+      <c r="M47" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48">
+        <v>14</v>
+      </c>
+      <c r="J48" t="s">
+        <v>39</v>
+      </c>
+      <c r="L48" s="5">
+        <v>5.3</v>
+      </c>
+      <c r="M48" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>39</v>
+      </c>
+      <c r="L49" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="M49" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
+      <c r="E50" s="2">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H50">
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="M50" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
+      <c r="E51" s="2">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M51" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s">
+        <v>36</v>
+      </c>
+      <c r="L52" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="M52" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
+      <c r="E53" s="2">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H53">
+        <v>19</v>
+      </c>
+      <c r="J53" t="s">
+        <v>39</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="M53" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2">
+        <v>3</v>
+      </c>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
+        <v>36</v>
+      </c>
+      <c r="L54">
+        <v>0.7</v>
+      </c>
+      <c r="M54" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2">
+        <v>3</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H55">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>39</v>
+      </c>
+      <c r="L55" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="M55" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H56">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" s="5">
+        <v>21.8</v>
+      </c>
+      <c r="M56" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57">
+        <v>23</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="M57" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>3</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="M58" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2">
+        <v>3</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>39</v>
+      </c>
+      <c r="L59" s="5">
+        <v>2.9</v>
+      </c>
+      <c r="M59" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H60">
+        <v>26</v>
+      </c>
+      <c r="J60" t="s">
+        <v>39</v>
+      </c>
+      <c r="L60" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M60" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2">
+        <v>3</v>
+      </c>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61">
+        <v>27</v>
+      </c>
+      <c r="J61" t="s">
+        <v>39</v>
+      </c>
+      <c r="L61" s="5">
+        <v>2</v>
+      </c>
+      <c r="M61" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>3</v>
+      </c>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H62">
+        <v>28</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+      <c r="L62" s="5">
+        <v>6.9</v>
+      </c>
+      <c r="M62" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>3</v>
+      </c>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63">
+        <v>29</v>
+      </c>
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
+      <c r="L63" s="5">
+        <v>3.7</v>
+      </c>
+      <c r="M63" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64">
+        <v>30</v>
+      </c>
+      <c r="J64" t="s">
+        <v>37</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="M64" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2">
+        <v>3</v>
+      </c>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65">
+        <v>31</v>
+      </c>
+      <c r="J65" t="s">
+        <v>38</v>
+      </c>
+      <c r="L65" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="M65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66">
+        <v>32</v>
+      </c>
+      <c r="J66" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="M66" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>3</v>
+      </c>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67">
+        <v>33</v>
+      </c>
+      <c r="J67" t="s">
+        <v>38</v>
+      </c>
+      <c r="L67" s="5">
+        <v>3.4</v>
+      </c>
+      <c r="M67" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68">
+        <v>34</v>
+      </c>
+      <c r="J68" t="s">
+        <v>38</v>
+      </c>
+      <c r="L68" s="5">
+        <v>4.8</v>
+      </c>
+      <c r="M68" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>3</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69">
+        <v>35</v>
+      </c>
+      <c r="J69" t="s">
+        <v>38</v>
+      </c>
+      <c r="L69" s="5">
+        <v>5.5</v>
+      </c>
+      <c r="M69" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>3</v>
+      </c>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70">
+        <v>36</v>
+      </c>
+      <c r="J70" t="s">
+        <v>38</v>
+      </c>
+      <c r="L70" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M70" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2">
+        <v>3</v>
+      </c>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71">
+        <v>37</v>
+      </c>
+      <c r="J71" t="s">
+        <v>38</v>
+      </c>
+      <c r="L71" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2</v>
+      </c>
+      <c r="E72" s="2">
+        <v>3</v>
+      </c>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72">
+        <v>38</v>
+      </c>
+      <c r="J72" t="s">
+        <v>38</v>
+      </c>
+      <c r="L72" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="M72" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
+      </c>
+      <c r="E73" s="2">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H73">
+        <v>39</v>
+      </c>
+      <c r="J73" t="s">
+        <v>36</v>
+      </c>
+      <c r="L73" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="M73" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>2</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3</v>
+      </c>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s">
+        <v>39</v>
+      </c>
+      <c r="L74" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="M74" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>2</v>
+      </c>
+      <c r="E75" s="2">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H75">
+        <v>41</v>
+      </c>
+      <c r="J75" t="s">
+        <v>38</v>
+      </c>
+      <c r="L75" s="5">
+        <v>1.7</v>
+      </c>
+      <c r="M75" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>2</v>
+      </c>
+      <c r="E76" s="2">
+        <v>3</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H76">
+        <v>42</v>
+      </c>
+      <c r="J76" t="s">
+        <v>38</v>
+      </c>
+      <c r="L76" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="M76" s="5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>2</v>
+      </c>
+      <c r="E77" s="2">
+        <v>3</v>
+      </c>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H77">
+        <v>43</v>
+      </c>
+      <c r="J77" t="s">
+        <v>39</v>
+      </c>
+      <c r="L77" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="M77" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" s="2">
+        <v>2</v>
+      </c>
+      <c r="E78" s="2">
+        <v>3</v>
+      </c>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78">
+        <v>44</v>
+      </c>
+      <c r="J78" t="s">
+        <v>37</v>
+      </c>
+      <c r="L78" s="5">
+        <v>2.6</v>
+      </c>
+      <c r="M78" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="2">
+        <v>2</v>
+      </c>
+      <c r="E79" s="2">
+        <v>3</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H79">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s">
+        <v>38</v>
+      </c>
+      <c r="L79" s="5">
+        <v>4</v>
+      </c>
+      <c r="M79" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
+      <c r="E80" s="2">
+        <v>3</v>
+      </c>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H80">
+        <v>46</v>
+      </c>
+      <c r="J80" t="s">
+        <v>38</v>
+      </c>
+      <c r="L80" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="M80" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" s="2">
+        <v>3</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H81">
+        <v>47</v>
+      </c>
+      <c r="J81" t="s">
+        <v>36</v>
+      </c>
+      <c r="L81" s="5">
+        <v>2</v>
+      </c>
+      <c r="M81" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2">
+        <v>3</v>
+      </c>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H82">
+        <v>48</v>
+      </c>
+      <c r="J82" t="s">
+        <v>39</v>
+      </c>
+      <c r="L82" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="M82" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2">
+        <v>3</v>
+      </c>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H83">
+        <v>49</v>
+      </c>
+      <c r="J83" t="s">
+        <v>39</v>
+      </c>
+      <c r="L83" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="M83" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2">
+        <v>3</v>
+      </c>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H84">
+        <v>50</v>
+      </c>
+      <c r="J84" t="s">
+        <v>39</v>
+      </c>
+      <c r="L84" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="M84" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="2">
+        <v>2</v>
+      </c>
+      <c r="E85" s="2">
+        <v>3</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H85">
+        <v>51</v>
+      </c>
+      <c r="J85" t="s">
+        <v>39</v>
+      </c>
+      <c r="L85" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="M85" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2">
+        <v>3</v>
+      </c>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H86">
+        <v>52</v>
+      </c>
+      <c r="J86" t="s">
+        <v>39</v>
+      </c>
+      <c r="L86" s="5">
+        <v>7.2</v>
+      </c>
+      <c r="M86">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="M87" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
